--- a/cluster/data test/dist-change-homer-ampar-ctr-2.xlsx
+++ b/cluster/data test/dist-change-homer-ampar-ctr-2.xlsx
@@ -370,1548 +370,2124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2616CF-B46E-4EC3-9D4D-2B35EF46F5B6}">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B192"/>
+      <selection sqref="A1:C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>278.37629012463634</v>
       </c>
       <c r="B1">
         <v>297.01176126894637</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>117.79878390754908</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>746.23056830733844</v>
       </c>
       <c r="B2">
         <v>946.35094405196548</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>98.512515624924333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>800.06239702696359</v>
       </c>
       <c r="B3">
         <v>372.44362052111427</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>64.632420609254467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>276.00542510947236</v>
       </c>
       <c r="B4">
         <v>286.11825657953636</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>89.52968254399984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>256.7894016638125</v>
       </c>
       <c r="B5">
         <v>1106.9836839144859</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>142.02244865081434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>237.50038979056922</v>
       </c>
       <c r="B6">
         <v>443.68079817598226</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>107.14872968107605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>148.33359721889755</v>
       </c>
       <c r="B7">
         <v>178.37493312914484</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>105.89183102301173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>243.80944999411884</v>
       </c>
       <c r="B8">
         <v>274.80283855249371</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>76.913340323527919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1180.7906705323724</v>
       </c>
       <c r="B9">
         <v>90.469339998536739</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>112.98933843787364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>908.45033028270564</v>
       </c>
       <c r="B10">
         <v>991.69327256513793</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>129.69849643565266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>429.370333785892</v>
       </c>
       <c r="B11">
         <v>193.58574882797507</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>330.34935360444945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>409.95193674978253</v>
       </c>
       <c r="B12">
         <v>605.02444614803665</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>79.288615061017452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>993.30618986003913</v>
       </c>
       <c r="B13">
         <v>1428.9468927905798</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>147.53781030332215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>663.4587699915553</v>
       </c>
       <c r="B14">
         <v>700.85076647740937</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>145.14671242496186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>593.36955487323905</v>
       </c>
       <c r="B15">
         <v>700.5461856933681</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>85.18343495750905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>348.40550478812708</v>
       </c>
       <c r="B16">
         <v>334.40970402034088</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>179.58771557262494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>637.16152713159283</v>
       </c>
       <c r="B17">
         <v>148.58930845935339</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>150.25284262169654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>85.461876547109014</v>
       </c>
       <c r="B18">
         <v>62.736648511687001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>44.326377570907084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>668.84237834298949</v>
       </c>
       <c r="B19">
         <v>735.83291513536369</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1495.7827656545085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>306.05216526455598</v>
       </c>
       <c r="B20">
         <v>818.249725310896</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>86.19050679590562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>635.98036148902042</v>
       </c>
       <c r="B21">
         <v>616.65338486668122</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>105.98622643394538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>371.65021769062071</v>
       </c>
       <c r="B22">
         <v>420.51323208811891</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>109.95456030526849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1035.7637632898541</v>
       </c>
       <c r="B23">
         <v>103.7117999849899</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>84.096572813015698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>231.16441501403972</v>
       </c>
       <c r="B24">
         <v>666.20373095354535</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>125.33386773819844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>126.24303234365681</v>
       </c>
       <c r="B25">
         <v>145.73765452055954</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>161.57993563419024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2815.6777356792786</v>
       </c>
       <c r="B26">
         <v>217.15238978206787</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>90.57799743319103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>414.31954232157415</v>
       </c>
       <c r="B27">
         <v>462.0106500565052</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>63.579445503241793</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1489.035603048899</v>
       </c>
       <c r="B28">
         <v>679.21581092289023</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>69.784603615103819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>304.18608255745778</v>
       </c>
       <c r="B29">
         <v>475.43284188811481</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>99.457974781277386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>211.7079188165506</v>
       </c>
       <c r="B30">
         <v>91.461605961474163</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>112.74969587393052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>419.28989788856728</v>
       </c>
       <c r="B31">
         <v>432.81567948785778</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>89.609780405522145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1037.7936638000408</v>
       </c>
       <c r="B32">
         <v>1162.9835664301277</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>107.72126167399853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>420.91534496635904</v>
       </c>
       <c r="B33">
         <v>312.21284065425033</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>41.203142492854788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>681.76180172252032</v>
       </c>
       <c r="B34">
         <v>601.00121552304961</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>193.59449966487378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>862.54240292884765</v>
       </c>
       <c r="B35">
         <v>288.10475430530181</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>89.263725234996159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>374.95487875854707</v>
       </c>
       <c r="B36">
         <v>1625.8453041500686</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>73.199627768851968</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1057.73155518166</v>
       </c>
       <c r="B37">
         <v>248.03536319726646</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>57.048709369297598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>346.92811280285935</v>
       </c>
       <c r="B38">
         <v>1444.40527473973</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>136.2346132398601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>772.09051106705783</v>
       </c>
       <c r="B39">
         <v>608.23725359468028</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>150.3349724549393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1327.0391701573233</v>
       </c>
       <c r="B40">
         <v>1504.3146927013006</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>146.35740576988934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>280.1556416513626</v>
       </c>
       <c r="B41">
         <v>275.31650041088</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>62.815779130750656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>200.8150971389604</v>
       </c>
       <c r="B42">
         <v>1129.4310155154226</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>166.53336843324809</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>644.74123588307634</v>
       </c>
       <c r="B43">
         <v>793.86837291336178</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>234.56122708037859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1113.459116236241</v>
       </c>
       <c r="B44">
         <v>160.67715826821711</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>152.39237982267284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>290.15904055386466</v>
       </c>
       <c r="B45">
         <v>393.2716576460133</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>55.938011507850234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1465.8803322081046</v>
       </c>
       <c r="B46">
         <v>198.22508029001403</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>177.9176259809694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>144.58374447732047</v>
       </c>
       <c r="B47">
         <v>217.65740482502937</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>94.910175681136081</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>669.63970983225443</v>
       </c>
       <c r="B48">
         <v>106.04299446438156</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>88.769866989223061</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>101.9932687519005</v>
       </c>
       <c r="B49">
         <v>106.45098374326918</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>96.185920511293105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>354.52881788241319</v>
       </c>
       <c r="B50">
         <v>285.48088105510999</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>249.74861063967833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1714.1512358403575</v>
       </c>
       <c r="B51">
         <v>152.55111399731311</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1835.289925199351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>433.28128393023945</v>
       </c>
       <c r="B52">
         <v>430.22949634590327</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>86.346122902469403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1305.4001845786054</v>
       </c>
       <c r="B53">
         <v>176.68981210553744</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>128.74513758824256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>766.91358644229933</v>
       </c>
       <c r="B54">
         <v>863.35182926567347</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>183.25912035457475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2031.2097717704705</v>
       </c>
       <c r="B55">
         <v>1728.3182954754025</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>184.05702686813518</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>168.16391808984613</v>
       </c>
       <c r="B56">
         <v>262.35615175946054</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>125.96435749868839</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>391.13460812914275</v>
       </c>
       <c r="B57">
         <v>211.8724621466456</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>132.7600536295412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>473.17460512348026</v>
       </c>
       <c r="B58">
         <v>528.13423714438102</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>75.0642350398264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>397.75975613873794</v>
       </c>
       <c r="B59">
         <v>272.88897579464691</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>228.16137295930255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>635.43218216270736</v>
       </c>
       <c r="B60">
         <v>163.80933129072272</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>450.60705664212247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1416.2742286911187</v>
       </c>
       <c r="B61">
         <v>1934.4379593490921</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>801.72745866188643</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>445.32641887085771</v>
       </c>
       <c r="B62">
         <v>394.19030601905547</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>54.000301407589497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>723.0303470393394</v>
       </c>
       <c r="B63">
         <v>483.12247118389485</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>225.79664257432944</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>341.84145063293062</v>
       </c>
       <c r="B64">
         <v>287.2620630197398</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>2273.7201237335221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>220.64579053834737</v>
       </c>
       <c r="B65">
         <v>341.60308663111334</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>181.8418491832638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>243.61218140360739</v>
       </c>
       <c r="B66">
         <v>304.33305529081031</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>152.28309021591369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>967.58931116358929</v>
       </c>
       <c r="B67">
         <v>520.9153913010274</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>131.23374620382685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>439.14883910292099</v>
       </c>
       <c r="B68">
         <v>286.57854314394825</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>170.28340561869658</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>452.0122850637685</v>
       </c>
       <c r="B69">
         <v>424.10981577278346</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>108.8063894341675</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>137.60342468015506</v>
       </c>
       <c r="B70">
         <v>205.77369517926687</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>304.51087275385072</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>412.1170241546364</v>
       </c>
       <c r="B71">
         <v>629.47431967438354</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>31.411528994567345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>376.66267307506212</v>
       </c>
       <c r="B72">
         <v>195.56769736426784</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>38.718293989356965</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1102.137434358536</v>
       </c>
       <c r="B73">
         <v>1133.0382315556481</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>83.745519679831972</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>202.52321752804662</v>
       </c>
       <c r="B74">
         <v>1010.5373715696287</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>104.97320946695405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>897.17953871793998</v>
       </c>
       <c r="B75">
         <v>991.53534952042526</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>176.70017556009265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>361.43772155631939</v>
       </c>
       <c r="B76">
         <v>373.18672676930311</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>64.591013269483241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>605.37743939069469</v>
       </c>
       <c r="B77">
         <v>360.90144991647554</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>93.399754525878151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>725.67317708354244</v>
       </c>
       <c r="B78">
         <v>347.87665956268648</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>91.521154345241456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>488.45465815626432</v>
       </c>
       <c r="B79">
         <v>657.31129144312445</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>97.769476795058807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>547.10761943867283</v>
       </c>
       <c r="B80">
         <v>576.32987217421839</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>174.41643477838858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>523.77456923803243</v>
       </c>
       <c r="B81">
         <v>494.27273572563195</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>174.23579936237854</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>234.67159483781992</v>
       </c>
       <c r="B82">
         <v>164.71530133929929</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>62.168809456708807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>919.45667542448302</v>
       </c>
       <c r="B83">
         <v>1095.3310937260269</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>238.75267822938781</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>883.98411269957558</v>
       </c>
       <c r="B84">
         <v>933.44728763930971</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>257.2464911098902</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>613.47000389367406</v>
       </c>
       <c r="B85">
         <v>195.66818513050148</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>855.79781121324595</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2089.2080285355896</v>
       </c>
       <c r="B86">
         <v>2043.187865872982</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>116.53208270178773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>265.47604754776171</v>
       </c>
       <c r="B87">
         <v>217.00275264559235</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>50.429809275865146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>365.45609644788243</v>
       </c>
       <c r="B88">
         <v>340.38489609184904</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>118.56026394151473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>806.16824427192932</v>
       </c>
       <c r="B89">
         <v>834.855883366885</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>72.114601543897692</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>863.86798545144973</v>
       </c>
       <c r="B90">
         <v>982.5798684899753</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>56.558930910505559</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>153.19850643249106</v>
       </c>
       <c r="B91">
         <v>1064.6564000604053</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>240.03960506676677</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1364.4862121087745</v>
       </c>
       <c r="B92">
         <v>349.96476612906605</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>120.78563630444366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1460.3117508009693</v>
       </c>
       <c r="B93">
         <v>344.78580592382025</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>47.443404415587644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>513.2204637823603</v>
       </c>
       <c r="B94">
         <v>426.85239053629056</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>229.03750640596206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>489.7152816034943</v>
       </c>
       <c r="B95">
         <v>133.40616424015192</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>90.359929254409749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>940.20285915188015</v>
       </c>
       <c r="B96">
         <v>834.32891867494448</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>43.767516671384342</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>467.72699684815291</v>
       </c>
       <c r="B97">
         <v>568.39424072262125</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>232.78987841983559</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>620.06354136205709</v>
       </c>
       <c r="B98">
         <v>749.02359467298174</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>128.51567697810495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>681.76180172252032</v>
       </c>
       <c r="B99">
         <v>673.10603306415851</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>889.52000253925507</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>164.28185233630546</v>
       </c>
       <c r="B100">
         <v>185.51262503572866</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>131.47780482820954</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>756.83610765412197</v>
       </c>
       <c r="B101">
         <v>708.34561243816449</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>725.32601442790951</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>282.08309683362279</v>
       </c>
       <c r="B102">
         <v>270.63764515675513</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>153.65749948750653</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1202.2494087263067</v>
       </c>
       <c r="B103">
         <v>799.39697651455697</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>1222.4381136636086</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>766.91358644229933</v>
       </c>
       <c r="B104">
         <v>406.3119716479552</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>992.18028138177226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>409.95193674978253</v>
       </c>
       <c r="B105">
         <v>176.80699082762388</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>1764.9471587270295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>130.91626931067762</v>
       </c>
       <c r="B106">
         <v>234.95159416773535</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>233.09133990763922</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1209.6545412737935</v>
       </c>
       <c r="B107">
         <v>706.40006999037212</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>34.695263749725704</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>291.67462178820836</v>
       </c>
       <c r="B108">
         <v>196.62074523412252</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>119.1385892978371</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>191.31775577322242</v>
       </c>
       <c r="B109">
         <v>561.82513607952922</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>69.864184359508286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1519.4288144269824</v>
       </c>
       <c r="B110">
         <v>312.85504396560259</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>221.16548092399412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>208.47184974903203</v>
       </c>
       <c r="B111">
         <v>197.37336539551106</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>456.7876868540863</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1448.5278028607299</v>
       </c>
       <c r="B112">
         <v>1483.4029569995046</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>94.85388003557614</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>393.86877923638474</v>
       </c>
       <c r="B113">
         <v>352.47873347241131</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>157.72143130909313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>122.25603295719402</v>
       </c>
       <c r="B114">
         <v>46.700292468351208</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>175.26802485072096</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>427.00690542391322</v>
       </c>
       <c r="B115">
         <v>231.04206830045342</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>112.8719836328838</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2815.6777356792786</v>
       </c>
       <c r="B116">
         <v>943.04764140500856</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>1071.0193212379427</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>577.88916387541008</v>
       </c>
       <c r="B117">
         <v>540.60025733927432</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>21.186495220788107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>566.94075954872869</v>
       </c>
       <c r="B118">
         <v>1601.6596592049057</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>93.20191980296525</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>233.29975794997327</v>
       </c>
       <c r="B119">
         <v>209.77572182142416</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>180.17713584952858</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>264.86560258827626</v>
       </c>
       <c r="B120">
         <v>304.84586514373069</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>271.88463736377315</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>482.00735219375872</v>
       </c>
       <c r="B121">
         <v>1022.0639343874203</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>49.681839051973704</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>167.93439800930807</v>
       </c>
       <c r="B122">
         <v>1329.5892135948088</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>124.66016498980251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1101.7175388706403</v>
       </c>
       <c r="B123">
         <v>702.79764701687918</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>130.71984368862866</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>101.65772818647334</v>
       </c>
       <c r="B124">
         <v>239.76552847939541</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>152.41353636834344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1582.7021899457884</v>
       </c>
       <c r="B125">
         <v>494.44177376144199</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>44.555627830477896</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>640.51907057352128</v>
       </c>
       <c r="B126">
         <v>443.52628833946397</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>1841.1952771197884</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2282.8011537506409</v>
       </c>
       <c r="B127">
         <v>512.98045823880432</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>95.895701728704296</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>650.96031880022213</v>
       </c>
       <c r="B128">
         <v>691.48027672974797</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>147.63420565486524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>390.1323302698209</v>
       </c>
       <c r="B129">
         <v>624.61231312941004</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>98.828773777573119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>834.15753564252032</v>
       </c>
       <c r="B130">
         <v>1048.2747620030857</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>73.612078283469032</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>148.55352262093834</v>
       </c>
       <c r="B131">
         <v>288.90755149470317</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>291.79517186028136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>210.95945016451415</v>
       </c>
       <c r="B132">
         <v>226.02453934115135</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>125.31294825447075</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>862.54240292884765</v>
       </c>
       <c r="B133">
         <v>907.9393697103053</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>1168.1850131179763</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>443.03722905436814</v>
       </c>
       <c r="B134">
         <v>386.65250960171124</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>47.291830474282619</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>223.55751125263038</v>
       </c>
       <c r="B135">
         <v>206.7543242199616</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>90.142599099523977</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1348.9728065450097</v>
       </c>
       <c r="B136">
         <v>1464.1590389809958</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>127.79736783930815</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>348.39345430536883</v>
       </c>
       <c r="B137">
         <v>302.23228543306095</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>169.39792830578276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>414.35304832707766</v>
       </c>
       <c r="B138">
         <v>404.94084407662461</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>168.65458116061563</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>242.43706768051484</v>
       </c>
       <c r="B139">
         <v>245.54471395589283</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>103.88169030919494</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1013.5011647084713</v>
       </c>
       <c r="B140">
         <v>330.31906353717125</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>800.90370603936458</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>310.56789075521647</v>
       </c>
       <c r="B141">
         <v>345.08486078444957</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>108.79777875772356</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>694.88708584351195</v>
       </c>
       <c r="B142">
         <v>700.75466552227954</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>80.970577944751497</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>363.469487115042</v>
       </c>
       <c r="B143">
         <v>563.31507671445559</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>197.41229378139147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>977.24390584276898</v>
       </c>
       <c r="B144">
         <v>963.06712771577747</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>152.23168618862383</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1394.0145917871341</v>
       </c>
       <c r="B145">
         <v>524.76829211881557</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>2334.9640015193386</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>625.91141061258793</v>
       </c>
       <c r="B146">
         <v>505.88192107032188</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>113.76670244804633</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>604.47293354142778</v>
       </c>
       <c r="B147">
         <v>704.68392300293442</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>252.1984704661877</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>880.60284872417833</v>
       </c>
       <c r="B148">
         <v>785.51814308890619</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>64.465726565343601</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>276.91659052620747</v>
       </c>
       <c r="B149">
         <v>129.46194333820705</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>187.81155035633054</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1062.9849298770605</v>
       </c>
       <c r="B150">
         <v>1194.5735810934466</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>90.626665178545565</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>596.44652291263833</v>
       </c>
       <c r="B151">
         <v>510.56858251629279</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>225.62950253220814</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>308.36591269655366</v>
       </c>
       <c r="B152">
         <v>233.89172781126865</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>142.42793331130866</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>229.79895108163146</v>
       </c>
       <c r="B153">
         <v>252.98803583407246</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>164.34967520182943</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>269.03645087072249</v>
       </c>
       <c r="B154">
         <v>228.63925910716006</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>364.34082804502054</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>249.98187137399123</v>
       </c>
       <c r="B155">
         <v>400.4698657414491</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>96.488531208108569</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>276.91659052620747</v>
       </c>
       <c r="B156">
         <v>1885.9388616229944</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>1727.5921668771748</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1322.1747097016585</v>
       </c>
       <c r="B157">
         <v>1099.9562704702078</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>78.359390746633721</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1305.4001845786054</v>
       </c>
       <c r="B158">
         <v>148.33215679559447</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>1307.9587918151904</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1779.0730947016041</v>
       </c>
       <c r="B159">
         <v>342.00344512357333</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>133.83157105014652</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>372.62958837675512</v>
       </c>
       <c r="B160">
         <v>102.21882823670377</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>73.123508553862393</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>273.018706598432</v>
       </c>
       <c r="B161">
         <v>159.36802650284565</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>194.80197695468584</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>669.51437973430973</v>
       </c>
       <c r="B162">
         <v>617.98454592431631</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>97.894961374477049</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>491.95012103768931</v>
       </c>
       <c r="B163">
         <v>685.28368730166733</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>139.66051300844398</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>252.09554374826362</v>
       </c>
       <c r="B164">
         <v>1257.5811433320907</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>642.94787645946769</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>241.41379367484984</v>
       </c>
       <c r="B165">
         <v>119.73520309369896</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>90.349323724062458</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>699.1831740653306</v>
       </c>
       <c r="B166">
         <v>777.55940896036293</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>86.728309030599277</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>613.6661493153432</v>
       </c>
       <c r="B167">
         <v>491.1347829463777</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>69.321208239882012</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>258.99783460411533</v>
       </c>
       <c r="B168">
         <v>226.92789975202535</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>76.067738423275614</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>411.0101164002333</v>
       </c>
       <c r="B169">
         <v>349.40872824869922</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>27.713313916242203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>494.14804221689275</v>
       </c>
       <c r="B170">
         <v>252.11495427207666</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>256.98465089235015</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>322.49853316299163</v>
       </c>
       <c r="B171">
         <v>90.156474403200377</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>117.25714588194975</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>765.2330732397611</v>
       </c>
       <c r="B172">
         <v>592.90334430495068</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>294.56125258810323</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>210.16127717009149</v>
       </c>
       <c r="B173">
         <v>185.61958024359728</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>76.840940497229411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>767.2544446477317</v>
       </c>
       <c r="B174">
         <v>539.56033354201168</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>112.12908334122487</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>265.27745918799491</v>
       </c>
       <c r="B175">
         <v>143.01927376852481</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>47.162166407534372</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>198.75479113540641</v>
       </c>
       <c r="B176">
         <v>105.31827436604888</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>103.14571647079829</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>178.61857744497004</v>
       </c>
       <c r="B177">
         <v>454.0368270291591</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>435.27490664709046</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1216.584561001554</v>
       </c>
       <c r="B178">
         <v>1462.6317389511255</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>269.61431801750206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>18642.167572330382</v>
       </c>
       <c r="B179">
         <v>19256.916242745996</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>57.693970434432266</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>243.80944999411884</v>
       </c>
       <c r="B180">
         <v>2561.4469580408063</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>2601.146713566035</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>173.63588273991215</v>
       </c>
       <c r="B181">
         <v>243.94233616571231</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>227.86630113770786</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>151.78864324180873</v>
       </c>
       <c r="B182">
         <v>262.99925519023179</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>85.571698740458302</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1288.2086997810179</v>
       </c>
       <c r="B183">
         <v>1030.7859546518275</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>120.793614841161</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>643.54507532140508</v>
       </c>
       <c r="B184">
         <v>185.33423598051129</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>68.790964757415892</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>329.44458549830136</v>
       </c>
       <c r="B185">
         <v>238.8398545839801</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>210.66442996238095</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>390.1323302698209</v>
       </c>
       <c r="B186">
         <v>115.08673900821513</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>1713.1720512496552</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1224.1597602787997</v>
       </c>
       <c r="B187">
         <v>663.69735543603633</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>171.49191096591028</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>374.23647013514949</v>
       </c>
       <c r="B188">
         <v>428.09916086760421</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>1206.7519230630244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>721.31814673987492</v>
       </c>
       <c r="B189">
         <v>633.37141310483446</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>53.3963747811556</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>650.96031880022213</v>
       </c>
       <c r="B190">
         <v>894.46460395588508</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>1415.6310061967979</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>495.27244113368374</v>
       </c>
       <c r="B191">
         <v>613.10654487345562</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>115.68171759193372</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>407.35908582441328</v>
       </c>
       <c r="B192">
         <v>946.34572069987337</v>
+      </c>
+      <c r="C192">
+        <v>290.2968426909888</v>
       </c>
     </row>
   </sheetData>
